--- a/src/uploads/auditdata.xlsx
+++ b/src/uploads/auditdata.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="758">
   <si>
     <t xml:space="preserve">201PT037</t>
   </si>
@@ -2306,11 +2306,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2341,6 +2342,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2406,7 +2413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2443,6 +2450,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2470,11 +2481,11 @@
   </sheetPr>
   <dimension ref="A1:LA126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.03"/>
@@ -5301,20 +5312,48 @@
       <c r="M4" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
@@ -5602,7 +5641,7 @@
       <c r="KZ4" s="8"/>
       <c r="LA4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>623</v>
       </c>
@@ -5631,19 +5670,45 @@
         <v>619</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -5935,7 +6000,7 @@
       <c r="KZ5" s="8"/>
       <c r="LA5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>624</v>
       </c>
@@ -5964,23 +6029,49 @@
         <v>626</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="K6" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
+      <c r="X6" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -6268,7 +6359,7 @@
       <c r="KZ6" s="8"/>
       <c r="LA6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>627</v>
       </c>
@@ -6285,7 +6376,7 @@
       <c r="F7" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>617</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -6295,23 +6386,57 @@
         <v>630</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
+      <c r="K7" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
@@ -6599,7 +6724,7 @@
       <c r="KZ7" s="8"/>
       <c r="LA7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>631</v>
       </c>
@@ -6626,23 +6751,49 @@
         <v>632</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="K8" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
+      <c r="X8" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
@@ -6930,7 +7081,7 @@
       <c r="KZ8" s="8"/>
       <c r="LA8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>633</v>
       </c>
@@ -6957,19 +7108,45 @@
         <v>630</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="K9" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -7261,7 +7438,7 @@
       <c r="KZ9" s="8"/>
       <c r="LA9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>635</v>
       </c>
@@ -7288,9 +7465,15 @@
         <v>630</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -7592,7 +7775,7 @@
       <c r="KZ10" s="8"/>
       <c r="LA10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>636</v>
       </c>
@@ -7619,23 +7802,45 @@
         <v>630</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
+      <c r="X11" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
@@ -7923,7 +8128,7 @@
       <c r="KZ11" s="8"/>
       <c r="LA11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>638</v>
       </c>
@@ -7950,9 +8155,15 @@
         <v>630</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -8254,7 +8465,7 @@
       <c r="KZ12" s="8"/>
       <c r="LA12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>639</v>
       </c>
@@ -8281,9 +8492,15 @@
         <v>630</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -8585,7 +8802,7 @@
       <c r="KZ13" s="8"/>
       <c r="LA13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>640</v>
       </c>
@@ -8612,9 +8829,15 @@
         <v>630</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="K14" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -8916,7 +9139,7 @@
       <c r="KZ14" s="8"/>
       <c r="LA14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>641</v>
       </c>
@@ -8943,9 +9166,15 @@
         <v>643</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -8958,8 +9187,12 @@
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
+      <c r="Z15" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
@@ -9247,7 +9480,7 @@
       <c r="KZ15" s="8"/>
       <c r="LA15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>644</v>
       </c>
@@ -9274,9 +9507,15 @@
         <v>643</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -9578,7 +9817,7 @@
       <c r="KZ16" s="8"/>
       <c r="LA16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>645</v>
       </c>
@@ -9605,9 +9844,15 @@
         <v>643</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -9909,7 +10154,7 @@
       <c r="KZ17" s="8"/>
       <c r="LA17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>646</v>
       </c>
@@ -9936,9 +10181,15 @@
         <v>643</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="K18" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -10240,7 +10491,7 @@
       <c r="KZ18" s="8"/>
       <c r="LA18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>647</v>
       </c>
@@ -10267,9 +10518,15 @@
         <v>643</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="K19" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -10571,7 +10828,7 @@
       <c r="KZ19" s="8"/>
       <c r="LA19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>648</v>
       </c>
@@ -10598,9 +10855,15 @@
         <v>643</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="K20" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -10902,7 +11165,7 @@
       <c r="KZ20" s="8"/>
       <c r="LA20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>649</v>
       </c>
@@ -10929,9 +11192,15 @@
         <v>643</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="K21" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -11233,7 +11502,7 @@
       <c r="KZ21" s="8"/>
       <c r="LA21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>650</v>
       </c>
@@ -11260,9 +11529,15 @@
         <v>643</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="K22" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -12226,7 +12501,7 @@
       <c r="KZ24" s="8"/>
       <c r="LA24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>653</v>
       </c>
@@ -12253,9 +12528,15 @@
         <v>643</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="K25" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -45662,7 +45943,7 @@
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="10"/>
+      <c r="E126" s="11"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -46283,15 +46564,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K4:K125" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L4:L126 N4:N126 P4:P126 R4:R126 T4:T126 V4:V126 X4:X126 Z4:Z126 AB4:AB126 AD4:AD126 AF4:AF126 AH4:AH126 AJ4:AJ126 AL4:AL126 AN4:AN126 AP4:AP126 AR4:AR126 AT4:AT126 AV4:AV126 AX4:AX126 AZ4:AZ126 BB4:BB126 BD4:BD126 BF4:BF126 BH4:BH126 BJ4:BJ126 BL4:BL126 BN4:BN126 BP4:BP126 BR4:BR126 BT4:BT126 BV4:BV126 BX4:BX126 BZ4:BZ126 CB4:CB126 CD4:CD126 CF4:CF126 CH4:CH126 CJ4:CJ126 CL4:CL126 CN4:CN126 CP4:CP126 CR4:CR126 CT4:CT126 CV4:CV126 CX4:CX126 CZ4:CZ126 DB4:DB126 DD4:DD126 DF4:DF126 DH4:DH126 DJ4:DJ126 DL4:DL126 DN4:DN126 DP4:DP126 DR4:DR126 DT4:DT126 DV4:DV126 DX4:DX126 DZ4:DZ126 EB4:EB126 ED4:ED126 EF4:EF126 EH4:EH126 EJ4:EJ126 EL4:EL126 EN4:EN126 EP4:EP126 ER4:ER126 ET4:ET126 EV4:EV126 EX4:EX126 EZ4:EZ126 FB4:FB126 FD4:FD126 FF4:FF126 FH4:FH126 FJ4:FJ126 FL4:FL126 FN4:FN126 FP4:FP126 FR4:FR126 FT4:FT126 FV4:FV126 FX4:FX126 FZ4:FZ126 GB4:GB126 GD4:GD126 GF4:GF126 GH4:GH126 GJ4:GJ126 GL4:GL126 GN4:GN126 GP4:GP126 GR4:GR126 GT4:GT126 GV4:GV126 GX4:GX126 GZ4:GZ126 HB4:HB126 HD4:HD126 HF4:HF126 HH4:HH126 HJ4:HJ126 HL4:HL126 HN4:HN126 HP4:HP126 HR4:HR126 HT4:HT126 HV4:HV126 HX4:HX126 HZ4:HZ126 IB4:IB126 ID4:ID126 IF4:IF126 IH4:IH126 IJ4:IJ126 IL4:IL126 IN4:IN126 IP4:IP126 IR4:IR126 IT4:IT126 IV4:IV126 IX4:IX126 IZ4:IZ126 JB4:JB126 JD4:JD126 JF4:JF126 JH4:JH126 JJ4:JJ126 JL4:JL126 JN4:JN126 JP4:JP126 JR4:JR126 JT4:JT126 JV4:JV126 JX4:JX126 JZ4:JZ126 KB4:KB126 KD4:KD126 KF4:KF126 KH4:KH126 KJ4:KJ126 KL4:KL126 KN4:KN126 KP4:KP126 KR4:KR126 KT4:KT126 KV4:KV126 KX4:KX126 KZ4:KZ126" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M4:M126 O4:O126 Q4:Q126 S4:S126 U4:U126 W4:W126 Y4:Y126 AA4:AA126 AC4:AC126 AE4:AE126 AG4:AG126 AI4:AI126 AK4:AK126 AM4:AM126 AO4:AO126 AQ4:AQ126 AS4:AS126 AU4:AU126 AW4:AW126 AY4:AY126 BA4:BA126 BC4:BC126 BE4:BE126 BG4:BG126 BI4:BI126 BK4:BK126 BM4:BM126 BO4:BO126 BQ4:BQ126 BS4:BS126 BU4:BU126 BW4:BW126 BY4:BY126 CA4:CA126 CC4:CC126 CE4:CE126 CG4:CG126 CI4:CI126 CK4:CK126 CM4:CM126 CO4:CO126 CQ4:CQ126 CS4:CS126 CU4:CU126 CW4:CW126 CY4:CY126 DA4:DA126 DC4:DC126 DE4:DE126 DG4:DG126 DI4:DI126 DK4:DK126 DM4:DM126 DO4:DO126 DQ4:DQ126 DS4:DS126 DU4:DU126 DW4:DW126 DY4:DY126 EA4:EA126 EC4:EC126 EE4:EE126 EG4:EG126 EI4:EI126 EK4:EK126 EM4:EM126 EO4:EO126 EQ4:EQ126 ES4:ES126 EU4:EU126 EW4:EW126 EY4:EY126 FA4:FA126 FC4:FC126 FE4:FE126 FG4:FG126 FI4:FI126 FK4:FK126 FM4:FM126 FO4:FO126 FQ4:FQ126 FS4:FS126 FU4:FU126 FW4:FW126 FY4:FY126 GA4:GA126 GC4:GC126 GE4:GE126 GG4:GG126 GI4:GI126 GK4:GK126 GM4:GM126 GO4:GO126 GQ4:GQ126 GS4:GS126 GU4:GU126 GW4:GW126 GY4:GY126 HA4:HA126 HC4:HC126 HE4:HE126 HG4:HG126 HI4:HI126 HK4:HK126 HM4:HM126 HO4:HO126 HQ4:HQ126 HS4:HS126 HU4:HU126 HW4:HW126 HY4:HY126 IA4:IA126 IC4:IC126 IE4:IE126 IG4:IG126 II4:II126 IK4:IK126 IM4:IM126 IO4:IO126 IQ4:IQ126 IS4:IS126 IU4:IU126 IW4:IW126 IY4:IY126 JA4:JA126 JC4:JC126 JE4:JE126 JG4:JG126 JI4:JI126 JK4:JK126 JM4:JM126 JO4:JO126 JQ4:JQ126 JS4:JS126 JU4:JU126 JW4:JW126 JY4:JY126 KA4:KA126 KC4:KC126 KE4:KE126 KG4:KG126 KI4:KI126 KK4:KK126 KM4:KM126 KO4:KO126 KQ4:KQ126 KS4:KS126 KU4:KU126 KW4:KW126 KY4:KY126 LA4:LA126" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/src/uploads/auditdata.xlsx
+++ b/src/uploads/auditdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="759">
   <si>
     <t xml:space="preserve">201PT037</t>
   </si>
@@ -1897,6 +1897,9 @@
   </si>
   <si>
     <t xml:space="preserve">Is the 30 days backup recording available in DVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ref!</t>
   </si>
   <si>
     <t xml:space="preserve">SV</t>
@@ -2306,7 +2309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2342,12 +2345,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2413,7 +2410,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2450,10 +2447,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2481,16 +2474,17 @@
   </sheetPr>
   <dimension ref="A1:LA126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="117.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="32.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.08"/>
@@ -5670,7 +5664,7 @@
         <v>619</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -6014,10 +6008,10 @@
         <v>614</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>617</v>
@@ -6026,10 +6020,10 @@
         <v>618</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -6361,12 +6355,14 @@
     </row>
     <row r="7" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>614</v>
       </c>
@@ -6374,19 +6370,19 @@
         <v>615</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="G7" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>617</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -6726,12 +6722,14 @@
     </row>
     <row r="8" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>614</v>
       </c>
@@ -6739,19 +6737,19 @@
         <v>615</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -7083,12 +7081,14 @@
     </row>
     <row r="9" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>614</v>
       </c>
@@ -7096,19 +7096,19 @@
         <v>615</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -7438,14 +7438,16 @@
       <c r="KZ9" s="8"/>
       <c r="LA9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>614</v>
       </c>
@@ -7453,19 +7455,19 @@
         <v>615</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -7777,12 +7779,14 @@
     </row>
     <row r="11" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="n">
+        <v>7</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>614</v>
       </c>
@@ -7790,19 +7794,19 @@
         <v>615</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -8128,14 +8132,16 @@
       <c r="KZ11" s="8"/>
       <c r="LA11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="n">
+        <v>8</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>614</v>
       </c>
@@ -8143,19 +8149,19 @@
         <v>615</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L12" s="8" t="s">
@@ -8465,14 +8471,16 @@
       <c r="KZ12" s="8"/>
       <c r="LA12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="n">
+        <v>9</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>614</v>
       </c>
@@ -8480,19 +8488,19 @@
         <v>615</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -8802,14 +8810,16 @@
       <c r="KZ13" s="8"/>
       <c r="LA13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>614</v>
       </c>
@@ -8817,19 +8827,19 @@
         <v>615</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -9139,14 +9149,16 @@
       <c r="KZ14" s="8"/>
       <c r="LA14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>614</v>
       </c>
@@ -9154,19 +9166,19 @@
         <v>615</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -9480,14 +9492,16 @@
       <c r="KZ15" s="8"/>
       <c r="LA15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="n">
+        <v>20</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>614</v>
       </c>
@@ -9495,19 +9509,19 @@
         <v>615</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -9817,14 +9831,16 @@
       <c r="KZ16" s="8"/>
       <c r="LA16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>614</v>
       </c>
@@ -9832,19 +9848,19 @@
         <v>615</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -10154,14 +10170,16 @@
       <c r="KZ17" s="8"/>
       <c r="LA17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>614</v>
       </c>
@@ -10169,19 +10187,19 @@
         <v>615</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -10491,14 +10509,16 @@
       <c r="KZ18" s="8"/>
       <c r="LA18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>614</v>
       </c>
@@ -10506,19 +10526,19 @@
         <v>615</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L19" s="8" t="s">
@@ -10828,14 +10848,16 @@
       <c r="KZ19" s="8"/>
       <c r="LA19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>614</v>
       </c>
@@ -10843,19 +10865,19 @@
         <v>615</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L20" s="8" t="s">
@@ -11165,14 +11187,16 @@
       <c r="KZ20" s="8"/>
       <c r="LA20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>614</v>
       </c>
@@ -11180,19 +11204,19 @@
         <v>615</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L21" s="8" t="s">
@@ -11502,14 +11526,16 @@
       <c r="KZ21" s="8"/>
       <c r="LA21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>614</v>
       </c>
@@ -11517,19 +11543,19 @@
         <v>615</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -11841,12 +11867,14 @@
     </row>
     <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>614</v>
       </c>
@@ -11854,16 +11882,16 @@
         <v>615</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -12172,12 +12200,14 @@
     </row>
     <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>614</v>
       </c>
@@ -12185,16 +12215,16 @@
         <v>615</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -12501,14 +12531,16 @@
       <c r="KZ24" s="8"/>
       <c r="LA24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="53.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>614</v>
       </c>
@@ -12516,19 +12548,19 @@
         <v>615</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>620</v>
       </c>
       <c r="L25" s="8" t="s">
@@ -12840,12 +12872,14 @@
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>614</v>
       </c>
@@ -12853,16 +12887,16 @@
         <v>615</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -13171,12 +13205,14 @@
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" s="8" t="s">
         <v>614</v>
       </c>
@@ -13184,16 +13220,16 @@
         <v>615</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -13502,12 +13538,14 @@
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>614</v>
       </c>
@@ -13515,16 +13553,16 @@
         <v>615</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -13833,12 +13871,14 @@
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7" t="n">
+        <v>4</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>614</v>
       </c>
@@ -13846,16 +13886,16 @@
         <v>615</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -14162,14 +14202,16 @@
       <c r="KZ29" s="8"/>
       <c r="LA29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>614</v>
       </c>
@@ -14177,21 +14219,27 @@
         <v>615</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -14495,12 +14543,14 @@
     </row>
     <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>614</v>
       </c>
@@ -14508,16 +14558,16 @@
         <v>615</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -14826,12 +14876,14 @@
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" s="8" t="s">
         <v>614</v>
       </c>
@@ -14839,16 +14891,16 @@
         <v>615</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -15157,12 +15209,14 @@
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>614</v>
       </c>
@@ -15170,16 +15224,16 @@
         <v>615</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -15488,12 +15542,14 @@
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D34" s="8" t="s">
         <v>614</v>
       </c>
@@ -15501,16 +15557,16 @@
         <v>615</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -15819,12 +15875,14 @@
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D35" s="8" t="s">
         <v>614</v>
       </c>
@@ -15832,16 +15890,16 @@
         <v>615</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -16150,12 +16208,14 @@
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>614</v>
       </c>
@@ -16163,16 +16223,16 @@
         <v>615</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -16481,12 +16541,14 @@
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D37" s="8" t="s">
         <v>614</v>
       </c>
@@ -16494,16 +16556,16 @@
         <v>615</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -16812,12 +16874,14 @@
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D38" s="8" t="s">
         <v>614</v>
       </c>
@@ -16825,16 +16889,16 @@
         <v>615</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -17143,12 +17207,14 @@
     </row>
     <row r="39" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="n">
+        <v>3</v>
+      </c>
       <c r="D39" s="8" t="s">
         <v>614</v>
       </c>
@@ -17156,16 +17222,16 @@
         <v>615</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -17474,12 +17540,14 @@
     </row>
     <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="D40" s="8" t="s">
         <v>614</v>
       </c>
@@ -17487,16 +17555,16 @@
         <v>615</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -17805,12 +17873,14 @@
     </row>
     <row r="41" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="D41" s="8" t="s">
         <v>614</v>
       </c>
@@ -17818,16 +17888,16 @@
         <v>615</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -18134,14 +18204,16 @@
       <c r="KZ41" s="8"/>
       <c r="LA41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="n">
+        <v>8</v>
+      </c>
       <c r="D42" s="8" t="s">
         <v>614</v>
       </c>
@@ -18155,15 +18227,21 @@
         <v>617</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="K42" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>622</v>
+      </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -18467,12 +18545,14 @@
     </row>
     <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="D43" s="8" t="s">
         <v>614</v>
       </c>
@@ -18486,10 +18566,10 @@
         <v>617</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -18798,12 +18878,14 @@
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="n">
+        <v>23</v>
+      </c>
       <c r="D44" s="8" t="s">
         <v>614</v>
       </c>
@@ -18817,10 +18899,10 @@
         <v>617</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -19129,7 +19211,7 @@
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>613</v>
@@ -19148,10 +19230,10 @@
         <v>617</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -19460,7 +19542,7 @@
     </row>
     <row r="46" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>613</v>
@@ -19479,10 +19561,10 @@
         <v>617</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -19791,7 +19873,7 @@
     </row>
     <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>613</v>
@@ -19810,10 +19892,10 @@
         <v>617</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -20122,7 +20204,7 @@
     </row>
     <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>613</v>
@@ -20141,10 +20223,10 @@
         <v>617</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -20453,7 +20535,7 @@
     </row>
     <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>613</v>
@@ -20472,10 +20554,10 @@
         <v>617</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -20784,7 +20866,7 @@
     </row>
     <row r="50" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>613</v>
@@ -20803,10 +20885,10 @@
         <v>617</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -21115,7 +21197,7 @@
     </row>
     <row r="51" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>613</v>
@@ -21134,10 +21216,10 @@
         <v>617</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -21446,7 +21528,7 @@
     </row>
     <row r="52" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>613</v>
@@ -21465,10 +21547,10 @@
         <v>617</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -21777,7 +21859,7 @@
     </row>
     <row r="53" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>613</v>
@@ -21796,10 +21878,10 @@
         <v>617</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -22108,7 +22190,7 @@
     </row>
     <row r="54" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>613</v>
@@ -22127,10 +22209,10 @@
         <v>617</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -22439,7 +22521,7 @@
     </row>
     <row r="55" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>613</v>
@@ -22458,10 +22540,10 @@
         <v>617</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -22770,7 +22852,7 @@
     </row>
     <row r="56" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>613</v>
@@ -22789,10 +22871,10 @@
         <v>617</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -23101,7 +23183,7 @@
     </row>
     <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>613</v>
@@ -23114,16 +23196,16 @@
         <v>615</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -23432,7 +23514,7 @@
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>613</v>
@@ -23445,16 +23527,16 @@
         <v>615</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -23763,7 +23845,7 @@
     </row>
     <row r="59" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>613</v>
@@ -23776,16 +23858,16 @@
         <v>615</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -24094,7 +24176,7 @@
     </row>
     <row r="60" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>613</v>
@@ -24107,16 +24189,16 @@
         <v>615</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -24425,7 +24507,7 @@
     </row>
     <row r="61" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>613</v>
@@ -24438,16 +24520,16 @@
         <v>615</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -24756,7 +24838,7 @@
     </row>
     <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>613</v>
@@ -24769,16 +24851,16 @@
         <v>615</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -25087,7 +25169,7 @@
     </row>
     <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>613</v>
@@ -25100,16 +25182,16 @@
         <v>615</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -25418,7 +25500,7 @@
     </row>
     <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>613</v>
@@ -25431,16 +25513,16 @@
         <v>615</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -25749,7 +25831,7 @@
     </row>
     <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>613</v>
@@ -25762,16 +25844,16 @@
         <v>615</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -26080,7 +26162,7 @@
     </row>
     <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>613</v>
@@ -26093,16 +26175,16 @@
         <v>615</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -26411,7 +26493,7 @@
     </row>
     <row r="67" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>613</v>
@@ -26424,16 +26506,16 @@
         <v>615</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -26742,7 +26824,7 @@
     </row>
     <row r="68" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>613</v>
@@ -26755,16 +26837,16 @@
         <v>615</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -27073,7 +27155,7 @@
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>613</v>
@@ -27086,7 +27168,7 @@
         <v>615</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>617</v>
@@ -27095,7 +27177,7 @@
         <v>618</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -27404,7 +27486,7 @@
     </row>
     <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>613</v>
@@ -27417,7 +27499,7 @@
         <v>615</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>617</v>
@@ -27426,7 +27508,7 @@
         <v>618</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -27735,7 +27817,7 @@
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>613</v>
@@ -27748,7 +27830,7 @@
         <v>615</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>617</v>
@@ -27757,7 +27839,7 @@
         <v>618</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -28066,7 +28148,7 @@
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>613</v>
@@ -28079,7 +28161,7 @@
         <v>615</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>617</v>
@@ -28088,7 +28170,7 @@
         <v>618</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -28397,7 +28479,7 @@
     </row>
     <row r="73" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>613</v>
@@ -28410,7 +28492,7 @@
         <v>615</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>617</v>
@@ -28419,7 +28501,7 @@
         <v>618</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -28728,7 +28810,7 @@
     </row>
     <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>613</v>
@@ -28741,7 +28823,7 @@
         <v>615</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>617</v>
@@ -28750,7 +28832,7 @@
         <v>618</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -29059,7 +29141,7 @@
     </row>
     <row r="75" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>613</v>
@@ -29072,7 +29154,7 @@
         <v>615</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>617</v>
@@ -29081,7 +29163,7 @@
         <v>618</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -29390,7 +29472,7 @@
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>613</v>
@@ -29403,7 +29485,7 @@
         <v>615</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>617</v>
@@ -29412,7 +29494,7 @@
         <v>618</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -29721,7 +29803,7 @@
     </row>
     <row r="77" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>613</v>
@@ -29734,7 +29816,7 @@
         <v>615</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>617</v>
@@ -29743,7 +29825,7 @@
         <v>618</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -30052,7 +30134,7 @@
     </row>
     <row r="78" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>613</v>
@@ -30065,7 +30147,7 @@
         <v>615</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>617</v>
@@ -30074,7 +30156,7 @@
         <v>618</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -30383,7 +30465,7 @@
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>613</v>
@@ -30396,7 +30478,7 @@
         <v>615</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>617</v>
@@ -30405,7 +30487,7 @@
         <v>618</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -30714,7 +30796,7 @@
     </row>
     <row r="80" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>613</v>
@@ -30727,7 +30809,7 @@
         <v>615</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>617</v>
@@ -30736,7 +30818,7 @@
         <v>618</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
@@ -31045,7 +31127,7 @@
     </row>
     <row r="81" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>613</v>
@@ -31058,7 +31140,7 @@
         <v>615</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>617</v>
@@ -31067,7 +31149,7 @@
         <v>618</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -31376,7 +31458,7 @@
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>613</v>
@@ -31389,7 +31471,7 @@
         <v>615</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>617</v>
@@ -31398,7 +31480,7 @@
         <v>618</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -31707,7 +31789,7 @@
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>613</v>
@@ -31720,7 +31802,7 @@
         <v>615</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>617</v>
@@ -31729,7 +31811,7 @@
         <v>618</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -32038,7 +32120,7 @@
     </row>
     <row r="84" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>613</v>
@@ -32051,7 +32133,7 @@
         <v>615</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>617</v>
@@ -32060,7 +32142,7 @@
         <v>618</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -32369,7 +32451,7 @@
     </row>
     <row r="85" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>613</v>
@@ -32382,7 +32464,7 @@
         <v>615</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>617</v>
@@ -32391,7 +32473,7 @@
         <v>618</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -32700,7 +32782,7 @@
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>613</v>
@@ -32713,7 +32795,7 @@
         <v>615</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>617</v>
@@ -32722,7 +32804,7 @@
         <v>618</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -33031,7 +33113,7 @@
     </row>
     <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>613</v>
@@ -33044,7 +33126,7 @@
         <v>615</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>617</v>
@@ -33053,7 +33135,7 @@
         <v>618</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -33362,7 +33444,7 @@
     </row>
     <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>613</v>
@@ -33375,7 +33457,7 @@
         <v>615</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>617</v>
@@ -33384,7 +33466,7 @@
         <v>618</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -33693,7 +33775,7 @@
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>613</v>
@@ -33706,7 +33788,7 @@
         <v>615</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>617</v>
@@ -33715,7 +33797,7 @@
         <v>618</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -34024,7 +34106,7 @@
     </row>
     <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>613</v>
@@ -34037,7 +34119,7 @@
         <v>615</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>617</v>
@@ -34046,7 +34128,7 @@
         <v>618</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -34355,7 +34437,7 @@
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>613</v>
@@ -34368,7 +34450,7 @@
         <v>615</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>617</v>
@@ -34377,7 +34459,7 @@
         <v>618</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -34686,7 +34768,7 @@
     </row>
     <row r="92" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>613</v>
@@ -34699,7 +34781,7 @@
         <v>615</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>617</v>
@@ -34708,7 +34790,7 @@
         <v>618</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -35017,7 +35099,7 @@
     </row>
     <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>613</v>
@@ -35030,7 +35112,7 @@
         <v>615</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>617</v>
@@ -35039,7 +35121,7 @@
         <v>618</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -35348,7 +35430,7 @@
     </row>
     <row r="94" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>613</v>
@@ -35361,7 +35443,7 @@
         <v>615</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>617</v>
@@ -35370,7 +35452,7 @@
         <v>618</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -35679,7 +35761,7 @@
     </row>
     <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>613</v>
@@ -35692,7 +35774,7 @@
         <v>615</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>617</v>
@@ -35701,7 +35783,7 @@
         <v>618</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -36010,7 +36092,7 @@
     </row>
     <row r="96" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>613</v>
@@ -36023,7 +36105,7 @@
         <v>615</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>617</v>
@@ -36032,7 +36114,7 @@
         <v>618</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -36341,7 +36423,7 @@
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>613</v>
@@ -36354,7 +36436,7 @@
         <v>615</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>617</v>
@@ -36363,7 +36445,7 @@
         <v>618</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -36672,7 +36754,7 @@
     </row>
     <row r="98" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>613</v>
@@ -36685,16 +36767,16 @@
         <v>615</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -37003,7 +37085,7 @@
     </row>
     <row r="99" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>613</v>
@@ -37016,16 +37098,16 @@
         <v>615</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -37334,7 +37416,7 @@
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>613</v>
@@ -37347,16 +37429,16 @@
         <v>615</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -37665,7 +37747,7 @@
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>613</v>
@@ -37684,10 +37766,10 @@
         <v>617</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -37996,7 +38078,7 @@
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>613</v>
@@ -38015,10 +38097,10 @@
         <v>617</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -38327,7 +38409,7 @@
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>613</v>
@@ -38346,10 +38428,10 @@
         <v>617</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -38658,7 +38740,7 @@
     </row>
     <row r="104" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>613</v>
@@ -38677,10 +38759,10 @@
         <v>617</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -38989,7 +39071,7 @@
     </row>
     <row r="105" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>613</v>
@@ -39008,10 +39090,10 @@
         <v>617</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -39320,7 +39402,7 @@
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>613</v>
@@ -39339,10 +39421,10 @@
         <v>617</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -39651,7 +39733,7 @@
     </row>
     <row r="107" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>613</v>
@@ -39670,10 +39752,10 @@
         <v>617</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -39982,7 +40064,7 @@
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>613</v>
@@ -40001,10 +40083,10 @@
         <v>617</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -40313,7 +40395,7 @@
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>613</v>
@@ -40332,10 +40414,10 @@
         <v>617</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -40644,7 +40726,7 @@
     </row>
     <row r="110" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>613</v>
@@ -40663,10 +40745,10 @@
         <v>617</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -40975,7 +41057,7 @@
     </row>
     <row r="111" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>613</v>
@@ -40994,10 +41076,10 @@
         <v>617</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -41306,7 +41388,7 @@
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>613</v>
@@ -41325,10 +41407,10 @@
         <v>617</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -41637,7 +41719,7 @@
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>613</v>
@@ -41656,10 +41738,10 @@
         <v>617</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -41968,7 +42050,7 @@
     </row>
     <row r="114" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>613</v>
@@ -41987,10 +42069,10 @@
         <v>617</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -42299,7 +42381,7 @@
     </row>
     <row r="115" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>613</v>
@@ -42318,10 +42400,10 @@
         <v>617</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -42630,7 +42712,7 @@
     </row>
     <row r="116" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>613</v>
@@ -42649,10 +42731,10 @@
         <v>617</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
@@ -42961,7 +43043,7 @@
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>613</v>
@@ -42980,10 +43062,10 @@
         <v>617</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
@@ -43292,7 +43374,7 @@
     </row>
     <row r="118" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>613</v>
@@ -43311,10 +43393,10 @@
         <v>617</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -43623,7 +43705,7 @@
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>613</v>
@@ -43642,10 +43724,10 @@
         <v>617</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -43954,7 +44036,7 @@
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>613</v>
@@ -43973,10 +44055,10 @@
         <v>617</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
@@ -44285,7 +44367,7 @@
     </row>
     <row r="121" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>613</v>
@@ -44304,10 +44386,10 @@
         <v>617</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
@@ -44616,7 +44698,7 @@
     </row>
     <row r="122" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>613</v>
@@ -44635,10 +44717,10 @@
         <v>617</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
@@ -44947,7 +45029,7 @@
     </row>
     <row r="123" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>613</v>
@@ -44966,10 +45048,10 @@
         <v>617</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
@@ -45278,7 +45360,7 @@
     </row>
     <row r="124" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>613</v>
@@ -45297,10 +45379,10 @@
         <v>617</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
@@ -45609,7 +45691,7 @@
     </row>
     <row r="125" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>613</v>
@@ -45628,10 +45710,10 @@
         <v>617</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
@@ -45938,12 +46020,12 @@
       <c r="KZ125" s="8"/>
       <c r="LA125" s="8"/>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="11"/>
+      <c r="E126" s="10"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
